--- a/cropped_and_labeled_image_data/2002_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2002_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,968 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P5_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P5_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P12_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F2_P12_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F1_P5_Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P5_Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F2_P12_Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F2_P12_Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dutton et al._2002_Org Sci_Red Light Green Light.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F1_P5_Dutton et al._2002_Org Sci_Red Light Green Light.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P5_Dutton et al._2002_Org Sci_Red Light Green Light.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F2_P9_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F2_P9_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F1_P2_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P2_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F2_P4_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F2_P4_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F3_P27_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F3_P27_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F1_P3_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P3_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F2_P8_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F2_P8_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Montealegre_2002_OrgSci_A Process Model of Capability Development.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1_P9_Montealegre_2002_OrgSci_A Process Model of Capability Development.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P9_Montealegre_2002_OrgSci_A Process Model of Capability Development.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F2_P12_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F2_P12_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F3_P16_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F3_P16_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F1_P7_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P7_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>organizational chart</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F2_P14_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F2_P14_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F3_P17_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F3_P17_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F4_P18_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F4_P18_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F5_P21_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F5_P21_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F6_P26_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E21" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F6_P26_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F7_P27_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F7_P27_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F8_P28_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F8_P28_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F9_P30_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E24" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F9_P30_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F10_P31_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E25" t="n">
+        <v>32</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F10_P31_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F2_P21_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F2_P21_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Staudenmayer et al._2002_OrgSci_Time to Change Temporal Shifts as Enablers of Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F1_P12_Staudenmayer et al._2002_OrgSci_Time to Change Temporal Shifts as Enablers of Org Change.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P12_Staudenmayer et al._2002_OrgSci_Time to Change Temporal Shifts as Enablers of Org Change.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2002_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2002_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,6 +1442,339 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Burgelman_2002_ASQ_Strategy as Vector and the Inertia of Coevolutionary Lock-in.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F1_P28_Burgelman_2002_ASQ_Strategy as Vector and the Inertia of Coevolutionary Lock-in.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E28" t="n">
+        <v>29</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P28_Burgelman_2002_ASQ_Strategy as Vector and the Inertia of Coevolutionary Lock-in.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Dutton et al._2002_OrgSci_Red Ligh Green Light.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F1_P4_Dutton et al._2002_OrgSci_Red Ligh Green Light.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P4_Dutton et al._2002_OrgSci_Red Ligh Green Light.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F1_P6_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P6_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Foreman &amp; Whetten_2002_OrgSci_Members identification with Multiple Identity Orgs_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F1_P3_Foreman &amp; Whetten_2002_OrgSci_Members identification with Multiple Identity Orgs_Quant.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P3_Foreman &amp; Whetten_2002_OrgSci_Members identification with Multiple Identity Orgs_Quant.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hodgkinson &amp; Wright_2002_OrgSci_Confronting Strategic Inertia in a Top Management Team - Learning from Failure.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F1_P14_Hodgkinson &amp; Wright_2002_OrgSci_Confronting Strategic Inertia in a Top Management Team - Learning from Failure.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P14_Hodgkinson &amp; Wright_2002_OrgSci_Confronting Strategic Inertia in a Top Management Team - Learning from Failure.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kitchener_2002_OrgStudies_Mobilitzing the Logic of Managerialism in Professional Fields.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F1_P9_Kitchener_2002_OrgStudies_Mobilitzing the Logic of Managerialism in Professional Fields.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P9_Kitchener_2002_OrgStudies_Mobilitzing the Logic of Managerialism in Professional Fields.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F1_P11_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P11_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F1_P2_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P2_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F1_P15_Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.png</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>final_figures/2002/F1_P15_Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2002_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2002_cropped_and_labeled_figs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -658,7 +658,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -732,7 +732,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I29" t="b">

--- a/cropped_and_labeled_image_data/2002_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2002_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,9 +542,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,9 +576,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,9 +610,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -883,9 +848,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,9 +916,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,9 +950,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>organizational chart</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1068,9 +1018,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1105,9 +1052,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,9 +1086,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,9 +1120,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,9 +1154,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1253,9 +1188,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1290,9 +1222,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1327,9 +1256,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1364,9 +1290,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1398,11 +1321,8 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1438,9 +1358,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1475,9 +1392,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1512,9 +1426,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1549,9 +1460,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1586,9 +1494,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1623,9 +1528,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1660,9 +1562,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1697,9 +1596,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1734,9 +1630,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1770,9 +1663,6 @@
         <is>
           <t>conceptual diagram</t>
         </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
